--- a/Software/Negative FCF/GitLab.xlsx
+++ b/Software/Negative FCF/GitLab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/Negative FCF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Software/Negative FCF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F0FCF2-E085-BE4A-A17A-17265DA0BC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F278BE-F519-1346-B510-21ED8E82323D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22680" yWindow="500" windowWidth="28500" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -317,9 +354,6 @@
     <t>link</t>
   </si>
   <si>
-    <t>GitLab</t>
-  </si>
-  <si>
     <t>3yr Rev Growth</t>
   </si>
   <si>
@@ -408,18 +442,127 @@
   </si>
   <si>
     <t>FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Weighted Average Cost of Capital</t>
+  </si>
+  <si>
+    <t>Cost of Debt Calculation</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>Short Term Debt</t>
+  </si>
+  <si>
+    <t>Long Term Debt</t>
+  </si>
+  <si>
+    <t>Cost of Debt</t>
+  </si>
+  <si>
+    <t>Income Tax Expense</t>
+  </si>
+  <si>
+    <t>Effective Tax Rate</t>
+  </si>
+  <si>
+    <t>Cost of Debt*(1-t)</t>
+  </si>
+  <si>
+    <t>Cost of Equity Calculation</t>
+  </si>
+  <si>
+    <t>Risk Free Rate</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Market Return</t>
+  </si>
+  <si>
+    <t>Cost of Equity</t>
+  </si>
+  <si>
+    <t>Weight of Debt + Equity Calculation</t>
+  </si>
+  <si>
+    <t>Total Debt</t>
+  </si>
+  <si>
+    <t>Weight of Debt</t>
+  </si>
+  <si>
+    <t>Market Cap</t>
+  </si>
+  <si>
+    <t>Weight of Equity</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>WACC Calculation</t>
+  </si>
+  <si>
+    <t>WACC</t>
+  </si>
+  <si>
+    <t>Proj. Free Cash Flow</t>
+  </si>
+  <si>
+    <t>FCF Growth Rate</t>
+  </si>
+  <si>
+    <t>Terminal Value</t>
+  </si>
+  <si>
+    <t>Perpetual Growth Rate</t>
+  </si>
+  <si>
+    <t>Discount Rate (WACC)</t>
+  </si>
+  <si>
+    <t>Discounted Cash Flow Valuation</t>
+  </si>
+  <si>
+    <t>Enterprise Value</t>
+  </si>
+  <si>
+    <t>Cash + Securities</t>
+  </si>
+  <si>
+    <t>Equity Value</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>Intrinsic Value</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>Upside/Downside</t>
+  </si>
+  <si>
+    <t>Buy/Sell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -509,8 +652,35 @@
       <name val="Calibri"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,8 +698,32 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -640,11 +834,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -703,9 +951,94 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="15" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -718,6 +1051,441 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=c3jojc&amp;q=XNAS%3aGTLB&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>Gitlab Inc. (XNAS:GTLB)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>c3jojc</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>70.959999999999994</v>
+    <v>30.92</v>
+    <v>2.5409999999999999</v>
+    <v>0.06</v>
+    <v>1.8E-3</v>
+    <v>-0.1</v>
+    <v>-2.9940000000000001E-3</v>
+    <v>USD</v>
+    <v>GitLab Inc. operates a DevOps platform that offers a single application, which brings together development, operations, information technology, security and business teams. The DevOps Platform is built on a single codebase, unified data model, and user interface. The Company allows the organizations to deploy the DevOps platform as a self-managed offering in their own multi-cloud, hybrid-cloud, or on-premises environments, and as a software as a service (SaaS) offering in its own public cloud. The DevOps platform enables the customers to move their DevOps workflow across any hybrid or multi-cloud environment. It serves various organizations, such as consumer and business services, financial services and consulting, manufacturing, media/telecommunications, public sector and education and software. It offers the DevOps platform in three subscription plans, namely Free, Premium and Ultimate. Its free tier platform is for individual users and the paid tiers is for managers and executives.</v>
+    <v>2170</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>268 BUSH STREET, #350, SAN FRANCISCO, CA, 94104 US</v>
+    <v>33.630000000000003</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45022.996063587503</v>
+    <v>0</v>
+    <v>32.67</v>
+    <v>5070120000</v>
+    <v>Gitlab Inc.</v>
+    <v>Gitlab Inc.</v>
+    <v>33.07</v>
+    <v>33.340000000000003</v>
+    <v>33.4</v>
+    <v>33.299999999999997</v>
+    <v>151800000</v>
+    <v>GTLB</v>
+    <v>Gitlab Inc. (XNAS:GTLB)</v>
+    <v>1697956</v>
+    <v>4036616</v>
+    <v>2014</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="44">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1017,13 +1785,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL107"/>
+  <dimension ref="A1:AL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E75" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I101" sqref="I101"/>
+      <selection pane="bottomRight" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1035,8 +1803,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2020</v>
@@ -1130,21 +1898,21 @@
         <v>970000000</v>
       </c>
       <c r="K3" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="M3" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>97</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="21">
@@ -1249,16 +2017,16 @@
         <v>372620000</v>
       </c>
       <c r="K6" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="M6" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="N6" s="17" t="s">
         <v>101</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -1314,14 +2082,14 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="21">
         <f>B8/B3</f>
         <v>0.73084073029903851</v>
       </c>
       <c r="C9" s="21">
-        <f t="shared" ref="C9:F9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:E9" si="1">C8/C3</f>
         <v>0.70078724634633582</v>
       </c>
       <c r="D9" s="21">
@@ -1335,16 +2103,16 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="K9" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="M9" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="N9" s="17" t="s">
         <v>105</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -1415,28 +2183,28 @@
         <v>427924000</v>
       </c>
       <c r="K12" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="M12" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="N12" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="N12" s="17" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="21">
         <f>B12/B3</f>
         <v>1.7340785699336427</v>
       </c>
       <c r="C13" s="21">
-        <f t="shared" ref="C13:F13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:E13" si="2">C12/C3</f>
         <v>1.5833902849332353</v>
       </c>
       <c r="D13" s="21">
@@ -1501,16 +2269,16 @@
         <v>584067000</v>
       </c>
       <c r="K15" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="M15" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="N15" s="17" t="s">
         <v>113</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -1535,16 +2303,16 @@
         <v>3.5630976026606309E-2</v>
       </c>
       <c r="L16" s="24">
-        <f>M102/E3</f>
-        <v>10.464294131510723</v>
+        <f>M101/E3</f>
+        <v>11.949375441904312</v>
       </c>
       <c r="M16" s="24">
-        <f>M102/E28</f>
-        <v>-27.085392189158522</v>
+        <f>M101/E28</f>
+        <v>-30.929321767138831</v>
       </c>
       <c r="N16" s="25">
         <f>M102/E106</f>
-        <v>-53.187666211456914</v>
+        <v>-1.1979204101679484E-8</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -1581,7 +2349,7 @@
         <v>1208000</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -1607,7 +2375,7 @@
     </row>
     <row r="20" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="21">
@@ -1764,7 +2532,7 @@
     </row>
     <row r="29" spans="1:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="21">
@@ -1870,7 +2638,7 @@
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
@@ -1880,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="29">
-        <f t="shared" ref="D35:F35" si="3">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:E35" si="3">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="29">
@@ -2640,10 +3408,10 @@
     </row>
     <row r="80" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B80" s="21">
-        <f t="shared" ref="B80:F80" si="4">B79/B3</f>
+        <f t="shared" ref="B80:E80" si="4">B79/B3</f>
         <v>0.50318243933667373</v>
       </c>
       <c r="C80" s="21">
@@ -2659,7 +3427,7 @@
         <v>0.2888687249587556</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>69</v>
       </c>
@@ -2674,7 +3442,7 @@
       </c>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>70</v>
       </c>
@@ -2691,7 +3459,7 @@
         <v>-130479000</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -2707,8 +3475,12 @@
       <c r="E83" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="L83" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="M83" s="31"/>
+    </row>
+    <row r="84" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -2724,8 +3496,12 @@
       <c r="E84" s="1">
         <v>5184000</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="L84" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="M84" s="33"/>
+    </row>
+    <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -2739,8 +3515,15 @@
         <v>56254000</v>
       </c>
       <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="L85" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="M85" s="35">
+        <f>E17</f>
+        <v>14496000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>72</v>
       </c>
@@ -2756,8 +3539,15 @@
       <c r="E86" s="1">
         <v>-594000</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="L86" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="M86" s="35">
+        <f>E56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>73</v>
       </c>
@@ -2773,8 +3563,15 @@
       <c r="E87" s="10">
         <v>-77408000</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="L87" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="M87" s="35">
+        <f>E61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>74</v>
       </c>
@@ -2790,13 +3587,19 @@
       <c r="E88" s="1">
         <v>-6070000</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L88" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="M88" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B89" s="21" t="e">
-        <f t="shared" ref="B89:F89" si="5">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:E89" si="5">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="21" t="e">
@@ -2811,8 +3614,17 @@
         <f t="shared" si="5"/>
         <v>1.4305915625736507E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="L89" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="M89" s="35">
+        <f>E27</f>
+        <v>2898000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>75</v>
       </c>
@@ -2828,8 +3640,15 @@
       <c r="E90" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="L90" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="M90" s="35">
+        <f>E25</f>
+        <v>-177798000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>76</v>
       </c>
@@ -2845,8 +3664,15 @@
       <c r="E91" s="1">
         <v>-821622000</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="L91" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="M91" s="37">
+        <f>M89/M90</f>
+        <v>-1.6299395943711402E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>77</v>
       </c>
@@ -2862,8 +3688,15 @@
       <c r="E92" s="1">
         <v>231626000</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="L92" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="M92" s="39">
+        <f>M88*(1-M91)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -2879,8 +3712,12 @@
       <c r="E93" s="1">
         <v>-9620000</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="L93" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="M93" s="41"/>
+    </row>
+    <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -2896,8 +3733,14 @@
       <c r="E94" s="10">
         <v>-605686000</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="L94" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="M94" s="42">
+        <v>4.095E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>80</v>
       </c>
@@ -2913,8 +3756,15 @@
       <c r="E95" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="L95" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="M95" s="43" cm="1">
+        <f t="array" ref="M95">_FV(A1,"Beta")</f>
+        <v>2.5409999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>81</v>
       </c>
@@ -2930,8 +3780,14 @@
       <c r="E96" s="1">
         <v>38983000</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="L96" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="M96" s="42">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>82</v>
       </c>
@@ -2947,8 +3803,15 @@
       <c r="E97" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="L97" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="M97" s="39">
+        <f>(M94)+((M95)*(M96-M94))</f>
+        <v>0.15034005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -2964,8 +3827,12 @@
       <c r="E98" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="L98" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="M98" s="41"/>
+    </row>
+    <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -2981,8 +3848,15 @@
       <c r="E99" s="1">
         <v>64863000</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="L99" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="M99" s="35">
+        <f>M86+M87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>85</v>
       </c>
@@ -2998,8 +3872,15 @@
       <c r="E100" s="10">
         <v>97482000</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="L100" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="M100" s="37">
+        <f>M99/M103</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>86</v>
       </c>
@@ -3015,8 +3896,15 @@
       <c r="E101" s="1">
         <v>-3658000</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="L101" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="M101" s="44" cm="1">
+        <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
+        <v>5070120000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>87</v>
       </c>
@@ -3032,11 +3920,15 @@
       <c r="E102" s="10">
         <v>-589270000</v>
       </c>
-      <c r="M102" s="1">
-        <v>4440000000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="L102" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="M102" s="37">
+        <f>M101/M103</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>88</v>
       </c>
@@ -3052,8 +3944,15 @@
       <c r="E103" s="1">
         <v>887172000</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L103" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="M103" s="45">
+        <f>M99+M101</f>
+        <v>5070120000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -3069,10 +3968,14 @@
       <c r="E104" s="11">
         <v>297902000</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L104" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="M104" s="41"/>
+    </row>
+    <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="21">
@@ -3087,6 +3990,19 @@
         <f>(E106/D106)-1</f>
         <v>0.56457689063817829</v>
       </c>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="21"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="M105" s="47">
+        <f>(M100*M92)+(M102*M97)</f>
+        <v>0.15034005</v>
+      </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
@@ -3105,6 +4021,36 @@
       <c r="E106" s="1">
         <f>+E87+E88</f>
         <v>-83478000</v>
+      </c>
+      <c r="F106" s="48">
+        <f>E106*(1+$M$106)</f>
+        <v>-98555996.783936337</v>
+      </c>
+      <c r="G106" s="48">
+        <f t="shared" ref="G106:J106" si="6">F106*(1+$M$106)</f>
+        <v>-116357417.54803984</v>
+      </c>
+      <c r="H106" s="48">
+        <f t="shared" si="6"/>
+        <v>-137374173.67032933</v>
+      </c>
+      <c r="I106" s="48">
+        <f t="shared" si="6"/>
+        <v>-162187026.7429609</v>
+      </c>
+      <c r="J106" s="48">
+        <f t="shared" si="6"/>
+        <v>-191481636.91122752</v>
+      </c>
+      <c r="K106" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="L106" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="M106" s="51">
+        <f>(SUM(F4:J4)/5)</f>
+        <v>0.18062240091924026</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -3112,8 +4058,152 @@
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
+      <c r="F107" s="49"/>
+      <c r="G107" s="49"/>
+      <c r="H107" s="49"/>
+      <c r="I107" s="49"/>
+      <c r="J107" s="52">
+        <f>J106*(1+M107)/(M108-M107)</f>
+        <v>-1565889576.6676986</v>
+      </c>
+      <c r="K107" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="L107" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="M107" s="55">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F108" s="52">
+        <f t="shared" ref="F108:H108" si="7">F107+F106</f>
+        <v>-98555996.783936337</v>
+      </c>
+      <c r="G108" s="52">
+        <f t="shared" si="7"/>
+        <v>-116357417.54803984</v>
+      </c>
+      <c r="H108" s="52">
+        <f t="shared" si="7"/>
+        <v>-137374173.67032933</v>
+      </c>
+      <c r="I108" s="52">
+        <f>I107+I106</f>
+        <v>-162187026.7429609</v>
+      </c>
+      <c r="J108" s="52">
+        <f>J107+J106</f>
+        <v>-1757371213.5789261</v>
+      </c>
+      <c r="K108" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="L108" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="M108" s="57">
+        <f>M105</f>
+        <v>0.15034005</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F109" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="G109" s="59"/>
+    </row>
+    <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F110" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G110" s="44">
+        <f>NPV(M108,F108,G108,H108,I108,J108)</f>
+        <v>-1228906922.8604279</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F111" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="G111" s="44">
+        <f>E40</f>
+        <v>936651000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F112" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="G112" s="44">
+        <f>M99</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F113" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="G113" s="44">
+        <f>G110+G111-G112</f>
+        <v>-292255922.86042786</v>
+      </c>
+    </row>
+    <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F114" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="G114" s="61">
+        <f>E34*(1+(5*K16))</f>
+        <v>174846431.29590282</v>
+      </c>
+    </row>
+    <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F115" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="G115" s="63">
+        <f>G113/G114</f>
+        <v>-1.6715006459916022</v>
+      </c>
+    </row>
+    <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F116" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="G116" s="64" cm="1">
+        <f t="array" ref="G116">_FV(A1,"Price")</f>
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F117" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="G117" s="66">
+        <f>G115/G116-1</f>
+        <v>-1.0500449295207066</v>
+      </c>
+    </row>
+    <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F118" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="G118" s="67" t="str">
+        <f>IF(G115&gt;G116,"BUY","SELL")</f>
+        <v>SELL</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="L104:M104"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/GTLB" display="ROIC.AI | GTLB" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B36" r:id="rId2" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
